--- a/budget.xlsx
+++ b/budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SajjadAli\Documents\Personal\Mine\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075FFD03-8695-48E4-BA86-09C7B9BCB25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF954B-4B8D-40F3-BEF8-661DB40A5822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{149B9A7D-2D7E-418F-9040-CB74585B55BD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>Monthly Expense Sheet</t>
   </si>
@@ -135,13 +135,40 @@
   </si>
   <si>
     <t>Lunch Home</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Petrol Price</t>
+  </si>
+  <si>
+    <t>Spliwise budget</t>
+  </si>
+  <si>
+    <t>I owe 1000 on Spliwise</t>
+  </si>
+  <si>
+    <t>Borrowed Money for renting flat for marriage</t>
+  </si>
+  <si>
+    <t>Some amount given recently</t>
+  </si>
+  <si>
+    <t>Izhar and Saboor called to Hakim saing that Faheem has asked to give them 3k. I owe him 1k in spliwise so I have deducted that here</t>
+  </si>
+  <si>
+    <t>Remaining Amount</t>
+  </si>
+  <si>
+    <t>Advance Payment paid for flat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +205,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +252,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -223,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -235,21 +283,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,22 +651,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="10"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1072,106 +1122,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EC5F60-F818-433B-B3CE-FE9EBE864CBC}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="C1" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>50000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="12">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="12">
-        <f>-1000</f>
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10">
+        <f>flat!B15</f>
+        <v>8500</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12">
-        <f>SUM(B3:B5)</f>
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="B9" s="10">
+        <f>SUM(B3:B6)</f>
+        <v>60500</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>30000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="14">
         <f>B9 - B10</f>
-        <v>22000</v>
+        <v>30500</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
